--- a/资产负债表/605179.xlsx
+++ b/资产负债表/605179.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>870379306.05</v>
+        <v>1839759362.45</v>
       </c>
       <c r="P2" t="n">
-        <v>395488774.72</v>
+        <v>599377150.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>233065726.21</v>
-      </c>
-      <c r="R2" t="n">
-        <v>82.3183473632</v>
-      </c>
+        <v>368081553.34</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>31341911.24</v>
-      </c>
-      <c r="T2" t="n">
-        <v>21.0015855036</v>
-      </c>
+        <v>60629975.98</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>38447004.47</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.6125220061</v>
-      </c>
+        <v>84337111.62</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>471473208.09</v>
+        <v>1079788221.18</v>
       </c>
       <c r="X2" t="n">
-        <v>142791426.18</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-5.0009984559</v>
-      </c>
+        <v>176490984.3</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>190951361.03</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>44.0138210214</v>
-      </c>
+        <v>441938.75</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>398906097.96</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>37.3622971941</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22.1383283415</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11.6670646035</v>
-      </c>
+        <v>759971141.27</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>77.14605274509999</v>
+        <v>77.9801347275</v>
       </c>
       <c r="AG2" t="n">
-        <v>54.1687060817</v>
+        <v>58.6918182464</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/605179.xlsx
+++ b/资产负债表/605179.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -784,54 +784,70 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-15 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1839759362.45</v>
+        <v>1390618711.43</v>
       </c>
       <c r="P2" t="n">
-        <v>599377150.52</v>
+        <v>479097142.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>368081553.34</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>287832012.28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-6.5958583509</v>
+      </c>
       <c r="S2" t="n">
-        <v>60629975.98</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>37302689.14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-8.317492528700001</v>
+      </c>
       <c r="U2" t="n">
-        <v>84337111.62</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>59601198.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>22.7981583085</v>
+      </c>
       <c r="W2" t="n">
-        <v>1079788221.18</v>
+        <v>729391693.34</v>
       </c>
       <c r="X2" t="n">
-        <v>176490984.3</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>176697912.98</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17.9426022997</v>
+      </c>
       <c r="Z2" t="n">
-        <v>441938.75</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>220864640.47</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12.6457557269</v>
+      </c>
       <c r="AB2" t="n">
-        <v>759971141.27</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>661227018.09</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35.6392482557</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>36.8922604734</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>38.0483485573</v>
+      </c>
       <c r="AF2" t="n">
-        <v>77.9801347275</v>
+        <v>79.4645872948</v>
       </c>
       <c r="AG2" t="n">
-        <v>58.6918182464</v>
+        <v>52.4508758112</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/605179.xlsx
+++ b/资产负债表/605179.xlsx
@@ -789,65 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1390618711.43</v>
+        <v>1015849038.23</v>
       </c>
       <c r="P2" t="n">
-        <v>479097142.71</v>
+        <v>399922409.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>287832012.28</v>
+        <v>308157654.68</v>
       </c>
       <c r="R2" t="n">
-        <v>-6.5958583509</v>
+        <v>32.2192068697</v>
       </c>
       <c r="S2" t="n">
-        <v>37302689.14</v>
+        <v>40686811.66</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.317492528700001</v>
+        <v>29.815987763</v>
       </c>
       <c r="U2" t="n">
-        <v>59601198.76</v>
+        <v>48535906.06</v>
       </c>
       <c r="V2" t="n">
-        <v>22.7981583085</v>
+        <v>26.241060205</v>
       </c>
       <c r="W2" t="n">
-        <v>729391693.34</v>
+        <v>528359593.55</v>
       </c>
       <c r="X2" t="n">
-        <v>176697912.98</v>
+        <v>149816868.15</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.9426022997</v>
+        <v>4.9200726948</v>
       </c>
       <c r="Z2" t="n">
-        <v>220864640.47</v>
+        <v>196070095.18</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.6457557269</v>
+        <v>2.6806481621</v>
       </c>
       <c r="AB2" t="n">
-        <v>661227018.09</v>
+        <v>487489444.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.6392482557</v>
+        <v>22.2065662002</v>
       </c>
       <c r="AD2" t="n">
-        <v>36.8922604734</v>
+        <v>16.713372109</v>
       </c>
       <c r="AE2" t="n">
-        <v>38.0483485573</v>
+        <v>12.0656666135</v>
       </c>
       <c r="AF2" t="n">
-        <v>79.4645872948</v>
+        <v>89.0335584696</v>
       </c>
       <c r="AG2" t="n">
-        <v>52.4508758112</v>
+        <v>52.0116251201</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
